--- a/3_QuickSort/3_QuickSort.xlsx
+++ b/3_QuickSort/3_QuickSort.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/3_QuickSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B4E0C-4A4E-1A42-AB73-75C6B702F25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C94AD-AF9A-F84B-8BA5-FB4D22691025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{AFEBE739-C1AA-D645-8CDD-6C415FD5DEC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AFEBE739-C1AA-D645-8CDD-6C415FD5DEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$X$7:$X$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$Y$7:$Y$15</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Лист1!$X$7:$X$15</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Лист1!$Y$7:$Y$15</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -188,7 +182,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DualPivot</c:v>
+                  <c:v>QuickSort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -293,7 +287,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QuickSort</c:v>
+                  <c:v>DualPivot</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2569,18 +2563,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA76574C-78A1-D24F-B981-826F67FEAA96}">
   <dimension ref="B6:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">

--- a/3_QuickSort/3_QuickSort.xlsx
+++ b/3_QuickSort/3_QuickSort.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Desktop/Учеба/7 сем/Прога/3_QuickSort/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169C94AD-AF9A-F84B-8BA5-FB4D22691025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD63811-44FA-7F4A-B031-005A4524E799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{AFEBE739-C1AA-D645-8CDD-6C415FD5DEC6}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{AFEBE739-C1AA-D645-8CDD-6C415FD5DEC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$71</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$B$72:$B$81</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$C$71</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$C$72:$C$81</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$D$71</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$D$72:$D$81</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">Лист1!$D$71</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">Лист1!$D$72:$D$81</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Лист1!$B$71</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Лист1!$B$72:$B$81</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">Лист1!$C$71</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">Лист1!$C$72:$C$81</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
   <si>
     <t>DualPivot</t>
   </si>
@@ -613,11 +627,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
+              <a:t>Количество</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> от степени отсортированности</a:t>
+              <a:t> перестановок</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -730,34 +744,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>669</c:v>
+                  <c:v>13116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700</c:v>
+                  <c:v>13140.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>901</c:v>
+                  <c:v>13130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1111</c:v>
+                  <c:v>13123.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1916</c:v>
+                  <c:v>13139.333333333334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1721</c:v>
+                  <c:v>13124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1824</c:v>
+                  <c:v>13124.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1448</c:v>
+                  <c:v>13147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>887</c:v>
+                  <c:v>13143.666666666666</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>684</c:v>
+                  <c:v>13120.333333333334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,34 +855,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>123104</c:v>
+                  <c:v>1257607.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44732</c:v>
+                  <c:v>1256155.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17344</c:v>
+                  <c:v>1260620.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15020</c:v>
+                  <c:v>1244690</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8375</c:v>
+                  <c:v>1258100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3969</c:v>
+                  <c:v>1253685.3333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8632</c:v>
+                  <c:v>1265278</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15755</c:v>
+                  <c:v>1312231.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22745</c:v>
+                  <c:v>1317456.6666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49712</c:v>
+                  <c:v>1236778.3333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1075,6 +1089,502 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Количество</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> сравнений</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QuickSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$72:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$72:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>137056.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136966.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137028.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136985.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137011.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136917.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>136959.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137086.66666666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137056.33333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136955.66666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74AE-514A-9B50-B32D6D606885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DualPivot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$72:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$72:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15108979.666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15358948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15268225.333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14810050.333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14901792.666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14725795.666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15007332.333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15355992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14925673.666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14774757.333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74AE-514A-9B50-B32D6D606885}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1498567824"/>
+        <c:axId val="1498569504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1498567824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498569504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1498569504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498567824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1155,6 +1665,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1672,6 +2222,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2256,6 +3322,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAEF38E2-A09B-1A42-B5B5-3715B502856B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2561,10 +3663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA76574C-78A1-D24F-B981-826F67FEAA96}">
-  <dimension ref="B6:D50"/>
+  <dimension ref="B6:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,10 +3791,12 @@
         <v>-1</v>
       </c>
       <c r="C41">
-        <v>669</v>
+        <f>AVERAGE(13095, 13130, 13123)</f>
+        <v>13116</v>
       </c>
       <c r="D41">
-        <v>123104</v>
+        <f>AVERAGE(1136807, 1179977, 1456039)</f>
+        <v>1257607.6666666667</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
@@ -2700,10 +3804,12 @@
         <v>-0.8</v>
       </c>
       <c r="C42">
-        <v>700</v>
+        <f>AVERAGE(13118, 13150, 13153)</f>
+        <v>13140.333333333334</v>
       </c>
       <c r="D42">
-        <v>44732</v>
+        <f>AVERAGE(1360050, 1484663, 923754)</f>
+        <v>1256155.6666666667</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2711,10 +3817,12 @@
         <v>-0.6</v>
       </c>
       <c r="C43">
-        <v>901</v>
+        <f>AVERAGE(13130, 13140, 13120)</f>
+        <v>13130</v>
       </c>
       <c r="D43">
-        <v>17344</v>
+        <f>AVERAGE(1184566, 1030340, 1566955)</f>
+        <v>1260620.3333333333</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
@@ -2722,10 +3830,12 @@
         <v>-0.4</v>
       </c>
       <c r="C44">
-        <v>1111</v>
+        <f>AVERAGE(13144, 13131, 13096)</f>
+        <v>13123.666666666666</v>
       </c>
       <c r="D44">
-        <v>15020</v>
+        <f>AVERAGE(1159965, 1058593,1515512)</f>
+        <v>1244690</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
@@ -2733,10 +3843,12 @@
         <v>-0.2</v>
       </c>
       <c r="C45">
-        <v>1916</v>
+        <f>AVERAGE(13112, 13171, 13135)</f>
+        <v>13139.333333333334</v>
       </c>
       <c r="D45">
-        <v>8375</v>
+        <f>AVERAGE(1262639, 1501767, 1009894)</f>
+        <v>1258100</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
@@ -2744,10 +3856,12 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1721</v>
+        <f>AVERAGE(13113, 13156, 13103)</f>
+        <v>13124</v>
       </c>
       <c r="D46">
-        <v>3969</v>
+        <f>AVERAGE(1956074, 995246, 809736)</f>
+        <v>1253685.3333333333</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
@@ -2755,10 +3869,12 @@
         <v>0.2</v>
       </c>
       <c r="C47">
-        <v>1824</v>
+        <f>AVERAGE(13103, 13127, 13144)</f>
+        <v>13124.666666666666</v>
       </c>
       <c r="D47">
-        <v>8632</v>
+        <f>AVERAGE(1272022, 1189662, 1334150)</f>
+        <v>1265278</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
@@ -2766,10 +3882,12 @@
         <v>0.4</v>
       </c>
       <c r="C48">
-        <v>1448</v>
+        <f>AVERAGE(13163, 13122, 13156)</f>
+        <v>13147</v>
       </c>
       <c r="D48">
-        <v>15755</v>
+        <f>AVERAGE(1525407,1329936,1081352)</f>
+        <v>1312231.6666666667</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
@@ -2777,10 +3895,12 @@
         <v>0.6</v>
       </c>
       <c r="C49">
-        <v>887</v>
+        <f>AVERAGE(13128, 13114, 13189)</f>
+        <v>13143.666666666666</v>
       </c>
       <c r="D49">
-        <v>22745</v>
+        <f>AVERAGE(1556674, 1164429, 1231267)</f>
+        <v>1317456.6666666667</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
@@ -2788,10 +3908,160 @@
         <v>0.8</v>
       </c>
       <c r="C50">
-        <v>684</v>
+        <f>AVERAGE(13071, 13116, 13174)</f>
+        <v>13120.333333333334</v>
       </c>
       <c r="D50">
-        <v>49712</v>
+        <f>AVERAGE(1429529, 1101871, 1178935)</f>
+        <v>1236778.3333333333</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <f>B41</f>
+        <v>-1</v>
+      </c>
+      <c r="C72">
+        <f>AVERAGE(136909, 137080, 137180)</f>
+        <v>137056.33333333334</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(15695352, 15661623, 13969964)</f>
+        <v>15108979.666666666</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <f>B42</f>
+        <v>-0.8</v>
+      </c>
+      <c r="C73">
+        <f>AVERAGE(136856, 137185, 136858)</f>
+        <v>136966.33333333334</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(19552276, 15661048, 10863520)</f>
+        <v>15358948</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <f>B43</f>
+        <v>-0.6</v>
+      </c>
+      <c r="C74">
+        <f>AVERAGE(136998, 137100, 136987)</f>
+        <v>137028.33333333334</v>
+      </c>
+      <c r="D74">
+        <f>AVERAGE(4372387, 24814290, 16617999)</f>
+        <v>15268225.333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <f>B44</f>
+        <v>-0.4</v>
+      </c>
+      <c r="C75">
+        <f>AVERAGE(137010, 137100, 136847)</f>
+        <v>136985.66666666666</v>
+      </c>
+      <c r="D75">
+        <f>AVERAGE(15799997,5625459, 23004695)</f>
+        <v>14810050.333333334</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <f>B45</f>
+        <v>-0.2</v>
+      </c>
+      <c r="C76">
+        <f>AVERAGE(136764, 137208, 137063)</f>
+        <v>137011.66666666666</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(24954395, 5134034, 14616949)</f>
+        <v>14901792.666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <f>B46</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>AVERAGE(136927, 137082, 136744)</f>
+        <v>136917.66666666666</v>
+      </c>
+      <c r="D77">
+        <f>AVERAGE(15856411, 21727075, 6593901)</f>
+        <v>14725795.666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <f>B47</f>
+        <v>0.2</v>
+      </c>
+      <c r="C78">
+        <f>AVERAGE(136798, 137041, 137039)</f>
+        <v>136959.33333333334</v>
+      </c>
+      <c r="D78">
+        <f>AVERAGE(20383743, 15089162, 9549092)</f>
+        <v>15007332.333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <f>B48</f>
+        <v>0.4</v>
+      </c>
+      <c r="C79">
+        <f>AVERAGE(137069, 137225, 136966)</f>
+        <v>137086.66666666666</v>
+      </c>
+      <c r="D79">
+        <f>AVERAGE(15031404, 20756098, 10280474)</f>
+        <v>15355992</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <f>B49</f>
+        <v>0.6</v>
+      </c>
+      <c r="C80">
+        <f>AVERAGE(137119, 137023, 137027)</f>
+        <v>137056.33333333334</v>
+      </c>
+      <c r="D80">
+        <f>AVERAGE(23911338, 14546064, 6319619)</f>
+        <v>14925673.666666666</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <f>B50</f>
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <f>AVERAGE(136756, 137031, 137080)</f>
+        <v>136955.66666666666</v>
+      </c>
+      <c r="D81">
+        <f>AVERAGE(22987840, 7137636, 14198796)</f>
+        <v>14774757.333333334</v>
       </c>
     </row>
   </sheetData>
